--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -23,7 +23,7 @@
     <t>hzz</t>
   </si>
   <si>
-    <t>黄壮壮</t>
+    <t>壮壮</t>
   </si>
 </sst>
 </file>
@@ -73,36 +73,40 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.3046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
         <v>1.0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3.0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
